--- a/server/app/uploads/addUser/student.xlsx
+++ b/server/app/uploads/addUser/student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="9936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
   <si>
     <t>user</t>
   </si>
@@ -497,6 +497,36 @@
   </si>
   <si>
     <t>汽车电气</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车维修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卞旺阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000024</t>
+  </si>
+  <si>
+    <t>00000025</t>
+  </si>
+  <si>
+    <t>410521000000000134</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>410521000000000234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -854,24 +884,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1113,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>110</v>
@@ -1218,7 +1248,7 @@
         <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>111</v>
@@ -1711,6 +1741,76 @@
         <v>115</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1">
+        <v>111</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="1">
+        <v>17761665252</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="1">
+        <v>17761665525</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>112</v>
       </c>
     </row>

--- a/server/app/uploads/addUser/student.xlsx
+++ b/server/app/uploads/addUser/student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="9936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>user</t>
   </si>
@@ -505,28 +505,6 @@
   </si>
   <si>
     <t>汽车维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卞旺阳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000024</t>
-  </si>
-  <si>
-    <t>00000025</t>
-  </si>
-  <si>
-    <t>410521000000000134</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>410521000000000234</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -884,24 +862,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1741,76 +1719,6 @@
         <v>115</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="1">
-        <v>111</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="1">
-        <v>17761665252</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="1">
-        <v>111</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="1">
-        <v>17761665525</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="5" t="s">
         <v>112</v>
       </c>
     </row>
